--- a/biology/Médecine/1447_en_santé_et_médecine/1447_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1447_en_santé_et_médecine/1447_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1447_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1447_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1447 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1447_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1447_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital général de Brescia en Lombardie[1].
-Fondation par Bertrand Ier, comte du Boulonnais, d'un hospice qui est à l'origine de l'hôpital général de Boulogne[2].
-Construction d'un hospice thermal à Bagni di Petriolo par Iacopo d'Ambrogio Spannochi[3].
-Le pape Nicolas V accorde au Collège des médecins (Collegio dei Medici) de Venise le droit de conférer les grades, mais seulement au citoyens de la ville[4].
-Fondation par John Kemp, archevêque d'York, du collège de Wye dans le comté de Kent, qui est à l'origine de l'actuel Imperial College of Science, Technology and Medicine, principalement tourné vers l'enseignement de l'agriculture[5].
-Fondation de l'hôpital Saint-Nicolas de Kues en Allemagne[6].
-À l'avènement de la République ambrosienne, une villa de Cusago, près de Milan, est affectée au soin des pauvres et des malades ; elle servira de lazaret pendant l'épidémie de 1451[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital général de Brescia en Lombardie.
+Fondation par Bertrand Ier, comte du Boulonnais, d'un hospice qui est à l'origine de l'hôpital général de Boulogne.
+Construction d'un hospice thermal à Bagni di Petriolo par Iacopo d'Ambrogio Spannochi.
+Le pape Nicolas V accorde au Collège des médecins (Collegio dei Medici) de Venise le droit de conférer les grades, mais seulement au citoyens de la ville.
+Fondation par John Kemp, archevêque d'York, du collège de Wye dans le comté de Kent, qui est à l'origine de l'actuel Imperial College of Science, Technology and Medicine, principalement tourné vers l'enseignement de l'agriculture.
+Fondation de l'hôpital Saint-Nicolas de Kues en Allemagne.
+À l'avènement de la République ambrosienne, une villa de Cusago, près de Milan, est affectée au soin des pauvres et des malades ; elle servira de lazaret pendant l'épidémie de 1451.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1447_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1447_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Adolphe Occon (mort en 1503 à Augsbourg), poète et médecin originaire de Frise orientale, médecin de Sigismond, archiduc d'Autriche, cousin d'un autre Adolphe Occon (1494-1572) également médecin et qu'il a institué son héritier universel[8].
-Gongmen Kunchog Deleg (mort en 1506), médecin tibétain[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adolphe Occon (mort en 1503 à Augsbourg), poète et médecin originaire de Frise orientale, médecin de Sigismond, archiduc d'Autriche, cousin d'un autre Adolphe Occon (1494-1572) également médecin et qu'il a institué son héritier universel.
+Gongmen Kunchog Deleg (mort en 1506), médecin tibétain.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1447_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1447_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1447-1448[10] : Giovanni de Concoregio (né vers 1380), professeur de médecine à Milan et Pavie et probablement à Bologne et Florence[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1447-1448 : Giovanni de Concoregio (né vers 1380), professeur de médecine à Milan et Pavie et probablement à Bologne et Florence.
 </t>
         </is>
       </c>
